--- a/biology/Médecine/1354_en_santé_et_médecine/1354_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1354_en_santé_et_médecine/1354_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1354_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1354_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1354 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1354_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1354_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3 mars : Haguenau, ville impériale d'Alsace, institue deux chirurgiens chargés d'examiner les malades qu'on veut exclure de la communauté parce qu'ils sont soupçonnés de lèpre[1].
-29 novembre : fondation à Berne, en Suisse, par Anna Seiler, d'une institution qui est à l'origine de l'hôpital de l'Île[2].
-Fondation par le gouverneur mamelouk Arghun al-Kamili du bimaristan d'Alep, en Syrie[3].
-Fondation de bourses d'études de médecine au collège de Justice, à Paris[4].
-Épidémie de « mal des ardents » en Artois et en Picardie[5].
-À Solignac et à Lastours en Limousin, les « hôpitaux », ainsi désignés en 1195 et 1291, sont mentionnés comme « léproseries[6] ».
-Une « maladière » est mentionnée au lieu-dit La Ronce, près de Saint-Germain-des-Champs, en Bourgogne[7].
-1353-1354 : le juriste Bernard Rascas fonde à Avignon l'hôpital Sainte-Marthe ou « grand hôpital ». Il est confié aux trinitaires et, dès le XVe siècle, devient le principal établissement de la ville[8],[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3 mars : Haguenau, ville impériale d'Alsace, institue deux chirurgiens chargés d'examiner les malades qu'on veut exclure de la communauté parce qu'ils sont soupçonnés de lèpre.
+29 novembre : fondation à Berne, en Suisse, par Anna Seiler, d'une institution qui est à l'origine de l'hôpital de l'Île.
+Fondation par le gouverneur mamelouk Arghun al-Kamili du bimaristan d'Alep, en Syrie.
+Fondation de bourses d'études de médecine au collège de Justice, à Paris.
+Épidémie de « mal des ardents » en Artois et en Picardie.
+À Solignac et à Lastours en Limousin, les « hôpitaux », ainsi désignés en 1195 et 1291, sont mentionnés comme « léproseries ».
+Une « maladière » est mentionnée au lieu-dit La Ronce, près de Saint-Germain-des-Champs, en Bourgogne.
+1353-1354 : le juriste Bernard Rascas fonde à Avignon l'hôpital Sainte-Marthe ou « grand hôpital ». Il est confié aux trinitaires et, dès le XVe siècle, devient le principal établissement de la ville,.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1354_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1354_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Henri de Grosmont, premier duc de Lancastre, Le livre de seyntz medicines [Le Livre des saints remèdes] (numérisation d'une édition ancienne ; numérisation plus lisible), ouvrage de dévotion qui comporte des recettes de médicaments[10]. Traduit la même année en anglais sous le titre de Book of the Holy Doctors[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Henri de Grosmont, premier duc de Lancastre, Le livre de seyntz medicines [Le Livre des saints remèdes] (numérisation d'une édition ancienne ; numérisation plus lisible), ouvrage de dévotion qui comporte des recettes de médicaments. Traduit la même année en anglais sous le titre de Book of the Holy Doctors.</t>
         </is>
       </c>
     </row>
